--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="377">
   <si>
     <t>zh_CN</t>
   </si>
@@ -808,15 +808,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Here, I'll buy you some sweeties. How about that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Shall I take you to see the fireworks?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]...If your mama was here, little Ah Jan, she wouldn't want to see you refusing to eat or drink, would she?
+    <t xml:space="preserve">[name="Mr. Nothing"]Here, I'll buy you some sweeties. How about that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Shall I take you to see the fireworks?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]...If your mama was here, little Ah Jan, she wouldn't want to see you refusing to eat or drink, would she?
 </t>
   </si>
   <si>
@@ -828,15 +828,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Oh. Cry, cry it out, now. Better than keeping it all trapped inside.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lava"]Mr.Nothing, who's this child?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Oh, benefactor... this child is called Ah Jan. I heard her father left home in search of work so long ago, and never came back. She hasn't seen her mother since yesterday, and has been utterly shaken ever since. She still hasn't had a single thing to eat or drink, not even today...
+    <t xml:space="preserve">[name="Mr. Nothing"]Oh. Cry, cry it out, now. Better than keeping it all trapped inside.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]Mr. Nothing, who's this child?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Oh, benefactor... this child is called Ah Jan. I heard her father left home in search of work so long ago, and never came back. She hasn't seen her mother since yesterday, and has been utterly shaken ever since. She still hasn't had a single thing to eat or drink, not even today...
 </t>
   </si>
   <si>
@@ -844,15 +844,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor! My benefactor, don't look so downcast. If it weren't for you and Kroos, this village's people would be suffering so terribly. As the proverb puts it...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]...Oh, what use would be a proverb.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor, what do we do now?
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor! My benefactor, don't look so downcast. If it weren't for you and Kroos, this village's people would be suffering so terribly. As the proverb puts it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]...Oh, what use would be a proverb.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor, what do we do now?
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]......
+    <t xml:space="preserve">[name="Mr. Nothing"]......
 </t>
   </si>
   <si>
@@ -1056,15 +1056,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Oh, dear, if it isn't my benefactor Kroos. What brings you barreling in?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]*Sigh* The people have all met calamity this time. No matter. I, along with you two benefactors, will help them rebuild this garden.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kroos"]...Mr.Nothing.
+    <t xml:space="preserve">[name="Mr. Nothing"]Oh, dear, if it isn't my benefactor Kroos. What brings you barreling in?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]*Sigh* The people have all met calamity this time. No matter. I, along with you two benefactors, will help them rebuild this garden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kroos"]...Mr. Nothing.
 </t>
   </si>
   <si>
@@ -1076,11 +1076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]...My benefactor! What are you saying!?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]...You saw that?
+    <t xml:space="preserve">[name="Mr. Nothing"]...My benefactor! What are you saying!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]...You saw that?
 </t>
   </si>
   <si>
@@ -1108,11 +1108,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I'm sorry, benefactor. You both saved me. I really ought to give you the whole story.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Perhaps, benefactor... you long since saw through me?
+    <t xml:space="preserve">[name="Mr. Nothing"]I'm sorry, benefactor. You both saved me. I really ought to give you the whole story.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Perhaps, benefactor... you long since saw through me?
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ahahah... once we've gotten out of here, I'll give you two a full confession.
+    <t xml:space="preserve">[name="Mr. Nothing"]Ahahah... once we've gotten out of here, I'll give you two a full confession.
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor... I'm wondering about something.
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor... I'm wondering about something.
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I'm wondering, before we suddenly saw the light in this garden, how long did we spend... trapped in this unusual village? I have absolutely no idea... that is to say...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Just how long has it been since we opened that door on Mount Hui-ch'i?
+    <t xml:space="preserve">[name="Mr. Nothing"]I'm wondering, before we suddenly saw the light in this garden, how long did we spend... trapped in this unusual village? I have absolutely no idea... that is to say...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Just how long has it been since we opened that door on Mount Hui-ch'i?
 </t>
   </si>
   <si>
@@ -1288,7 +1288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="이야기꾼"]너……
+    <t xml:space="preserve">[name="이야기꾼"]당신……?
 </t>
   </si>
   <si>
@@ -1449,6 +1449,10 @@
   </si>
   <si>
     <t xml:space="preserve">[name="우요우"]……은인님! 무슨 소리십니까!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="크루스"]괜찮은 부채네~
 </t>
   </si>
   <si>
@@ -3092,7 +3096,7 @@
         <v>260</v>
       </c>
       <c r="D87" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3106,7 +3110,7 @@
         <v>267</v>
       </c>
       <c r="D88" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3120,7 +3124,7 @@
         <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3134,7 +3138,7 @@
         <v>269</v>
       </c>
       <c r="D90" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3148,7 +3152,7 @@
         <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3162,7 +3166,7 @@
         <v>271</v>
       </c>
       <c r="D92" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3176,7 +3180,7 @@
         <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3204,7 +3208,7 @@
         <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3218,7 +3222,7 @@
         <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3232,7 +3236,7 @@
         <v>275</v>
       </c>
       <c r="D97" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3246,7 +3250,7 @@
         <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3260,7 +3264,7 @@
         <v>277</v>
       </c>
       <c r="D99" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3274,7 +3278,7 @@
         <v>278</v>
       </c>
       <c r="D100" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3288,7 +3292,7 @@
         <v>279</v>
       </c>
       <c r="D101" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3302,7 +3306,7 @@
         <v>280</v>
       </c>
       <c r="D102" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3316,7 +3320,7 @@
         <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3330,7 +3334,7 @@
         <v>282</v>
       </c>
       <c r="D104" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
